--- a/ipc-webscraping/data/base100/base_salud.xlsx
+++ b/ipc-webscraping/data/base100/base_salud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>2025-11-17</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +616,12 @@
       <c r="U2" t="n">
         <v>103.2544094633603</v>
       </c>
+      <c r="V2" t="n">
+        <v>103.2544094633603</v>
+      </c>
+      <c r="W2" t="n">
+        <v>103.4208867851385</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +689,12 @@
       <c r="U3" t="n">
         <v>99.24830195587748</v>
       </c>
+      <c r="V3" t="n">
+        <v>99.24549313678602</v>
+      </c>
+      <c r="W3" t="n">
+        <v>99.36645082597497</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -740,6 +762,12 @@
       <c r="U4" t="n">
         <v>99.41486135918663</v>
       </c>
+      <c r="V4" t="n">
+        <v>99.51189610952267</v>
+      </c>
+      <c r="W4" t="n">
+        <v>99.85263303746299</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -807,6 +835,12 @@
       <c r="U5" t="n">
         <v>99.38446490019406</v>
       </c>
+      <c r="V5" t="n">
+        <v>99.00161196992987</v>
+      </c>
+      <c r="W5" t="n">
+        <v>99.48940091271139</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -874,6 +908,12 @@
       <c r="U6" t="n">
         <v>100.0000000000001</v>
       </c>
+      <c r="V6" t="n">
+        <v>100.0000000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>100.0000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,6 +981,12 @@
       <c r="U7" t="n">
         <v>100.3186869875513</v>
       </c>
+      <c r="V7" t="n">
+        <v>100.3186869875513</v>
+      </c>
+      <c r="W7" t="n">
+        <v>100.5410801621737</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1008,6 +1054,12 @@
       <c r="U8" t="n">
         <v>100.2276443985655</v>
       </c>
+      <c r="V8" t="n">
+        <v>100.2276443985655</v>
+      </c>
+      <c r="W8" t="n">
+        <v>100.3604249259348</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1075,6 +1127,12 @@
       <c r="U9" t="n">
         <v>100.3998469736884</v>
       </c>
+      <c r="V9" t="n">
+        <v>100.3998469736884</v>
+      </c>
+      <c r="W9" t="n">
+        <v>100.4378568195903</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1142,6 +1200,12 @@
       <c r="U10" t="n">
         <v>100.7883080622742</v>
       </c>
+      <c r="V10" t="n">
+        <v>100.7883080622742</v>
+      </c>
+      <c r="W10" t="n">
+        <v>101.0332226169407</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,6 +1272,12 @@
       </c>
       <c r="U11" t="n">
         <v>100.5014074528192</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100.466461333787</v>
+      </c>
+      <c r="W11" t="n">
+        <v>100.29946493849</v>
       </c>
     </row>
   </sheetData>
